--- a/P0020/09_FICHAS/N2-FP-INFORME.xlsx
+++ b/P0020/09_FICHAS/N2-FP-INFORME.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28412"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28417"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\S3_Buckets\foa-prod-comp-fenomenologico-bucket\foa_puj_curada\P0020\09_FICHAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="42" documentId="13_ncr:1_{07C282C1-66CE-4A82-827B-60AC9197104A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9100D2AF-3FF6-4BC3-A87F-2493422A1A93}"/>
+  <xr:revisionPtr revIDLastSave="47" documentId="13_ncr:1_{07C282C1-66CE-4A82-827B-60AC9197104A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2591260E-B802-4146-8A93-4F0155AE2873}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="9570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -98,7 +98,7 @@
     <t>PR0001</t>
   </si>
   <si>
-    <t>INV-INF-GEO-002 (ESTUDIOS DE GEOLOGÍA PARA INGENIERÍA)</t>
+    <t>INV-INF-GEO-002</t>
   </si>
   <si>
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0020/02_PRODUCTOS/VOL. 3 GEOLOGIA/INFORME/INV-INF-GEO-002.pdf</t>
@@ -138,7 +138,7 @@
     <t>PR0002</t>
   </si>
   <si>
-    <t>FA-INF-ESF-003.1 (ESTUDIO DE SUELOS PARA EL DISEÑO  DE FUNDACIONES DE PUENTES Y OTRAS ESTRUCTURAS DE CONTENCIÓN</t>
+    <t>FA-INF-ESF-003.1</t>
   </si>
   <si>
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0020/02_PRODUCTOS/VOL. 4 EST SUELOS CTO 083/INFORME/PDF/FA-INF-ESF-003.1.pdf</t>
@@ -162,7 +162,7 @@
     <t>PR0003</t>
   </si>
   <si>
-    <t>FA-INF-ESF-004.1 (ESTUDIOS DE SUELOS PARA EL DISEÑO DE FUNDACIONES DE PUENTES Y OTRAS ESTRUCTURAS DE CONTENCIÓN</t>
+    <t>FA-INF-ESF-004.1</t>
   </si>
   <si>
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0020/02_PRODUCTOS/VOL. 4 ESTUDIO DE SUELOS FUNDACIONES/INFORME/PDF/INV-INF-ESF-004.1.pdf</t>
@@ -186,7 +186,7 @@
     <t>PR0004</t>
   </si>
   <si>
-    <t>FA-INF-HDR-002 (ESTUDIO DE HIDROLOGÍA, HIDRÁULLICA Y SOCAVACIÓN)</t>
+    <t>FA-INF-HDR-002</t>
   </si>
   <si>
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0020/02_PRODUCTOS/VOL. 7 HIDROLOGIA CTO 083/INFORME/FA-INF-HDR-002.pdf</t>
@@ -210,7 +210,7 @@
     <t>PR0005</t>
   </si>
   <si>
-    <t>INV-INF-HDR-003_RGP (ESTUDIO DE HIDROLOGÍA , HIDRÁULICA Y SOCAVACIÓN )</t>
+    <t>INV-INF-HDR-003_RGP</t>
   </si>
   <si>
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0020/02_PRODUCTOS/VOL. 7 HIDROLOGIA CTO 2146/INFORME/PDF/INV-INF-HDR-003_RGP.pdf</t>
@@ -574,8 +574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>

--- a/P0020/09_FICHAS/N2-FP-INFORME.xlsx
+++ b/P0020/09_FICHAS/N2-FP-INFORME.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28521"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\S3_Buckets\foa-prod-comp-fenomenologico-bucket\foa_puj_curada\P0020\09_FICHAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="47" documentId="13_ncr:1_{07C282C1-66CE-4A82-827B-60AC9197104A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2591260E-B802-4146-8A93-4F0155AE2873}"/>
+  <xr:revisionPtr revIDLastSave="48" documentId="13_ncr:1_{07C282C1-66CE-4A82-827B-60AC9197104A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8A247DDD-EC87-41F8-B339-E00130524E48}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="9570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -288,10 +288,8 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -575,7 +573,7 @@
   <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -642,11 +640,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="45.75">
+    <row r="2" spans="1:18">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -688,7 +686,7 @@
       <c r="O2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="P2" s="3" t="s">
         <v>29</v>
       </c>
       <c r="Q2" s="1" t="s">
@@ -698,11 +696,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="45.75">
+    <row r="3" spans="1:18">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -744,7 +742,7 @@
       <c r="O3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="P3" s="3" t="s">
         <v>37</v>
       </c>
       <c r="Q3" s="1" t="s">
@@ -754,11 +752,11 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="45.75">
+    <row r="4" spans="1:18">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -800,7 +798,7 @@
       <c r="O4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="P4" s="3" t="s">
         <v>45</v>
       </c>
       <c r="Q4" s="1" t="s">
@@ -810,11 +808,11 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="45.75">
+    <row r="5" spans="1:18">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -856,7 +854,7 @@
       <c r="O5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="P5" s="2" t="s">
+      <c r="P5" s="3" t="s">
         <v>53</v>
       </c>
       <c r="Q5" s="1" t="s">
@@ -866,11 +864,11 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="45.75">
+    <row r="6" spans="1:18">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -912,7 +910,7 @@
       <c r="O6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="P6" s="2" t="s">
+      <c r="P6" s="3" t="s">
         <v>61</v>
       </c>
       <c r="Q6" s="1" t="s">
